--- a/biology/Zoologie/Anteros_(genre)/Anteros_(genre).xlsx
+++ b/biology/Zoologie/Anteros_(genre)/Anteros_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anteros est un genre d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Anteros leur a été donné par Jacob Hübner en 1819.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anteros acheus (Stoll, 1781); présent au Surinam, en Bolivie et au Brésil.
 Anteros aerosus Stichel, 1924;  présent en Guyana et au Brésil
@@ -552,14 +568,14 @@
 Anteros carausius Westwood, 1851; présent au Mexique, à Panama, en  Équateur, au Venezuela et en Bolivie.
 Anteros chrysoprasta Hewitson, 1867; présent à Panama, au Guatemala, au Brésil et au Pérou.
 Anteros cruentatus Stichel, 1911; présent en Bolivie.
-Anteros formosus (Cramer, [1777]); présent à Panama, au Honduras, au Surinam, en Bolivie, en Colombie et au Pérou.
+Anteros formosus (Cramer, ); présent à Panama, au Honduras, au Surinam, en Bolivie, en Colombie et au Pérou.
 Anteros gentilis (Rebillard, 1958); présent au Pérou.
 Anteros kupris Hewitson, 1875; présent au Costa Rica, en Colombie, en Bolivie et au Pérou.
 Anteros lectabilis Stichel, 1909; au Brésil
 Anteros nubosus Hall &amp; Willmott, 1995; présent en  Équateur.
 Anteros otho Westwood, 1851; au Brésil
 Anteros principalis Hopffer, 1874; présent en Colombie, en  Équateur et au Pérou.
-Anteros renaldus (Stoll, [1790]); présent au Surinam,  à Panama, au Nicaragua et au Brésil.</t>
+Anteros renaldus (Stoll, ); présent au Surinam,  à Panama, au Nicaragua et au Brésil.</t>
         </is>
       </c>
     </row>
